--- a/data/pca/factorExposure/factorExposure_2018-09-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-09-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.0371755130807267</v>
+        <v>0.03000850241177306</v>
       </c>
       <c r="C2">
-        <v>0.04734717297451403</v>
+        <v>0.01318350929808374</v>
       </c>
       <c r="D2">
-        <v>0.03645263155652296</v>
+        <v>0.01017947942117409</v>
       </c>
       <c r="E2">
-        <v>-0.05340615517241686</v>
+        <v>-0.01411486406099142</v>
       </c>
       <c r="F2">
-        <v>-0.1442374886774647</v>
+        <v>0.02314666055781875</v>
       </c>
       <c r="G2">
-        <v>-0.0605589264621041</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08135482239565457</v>
+      </c>
+      <c r="H2">
+        <v>-0.01438270957298149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1211356671751581</v>
+        <v>0.07888804070004868</v>
       </c>
       <c r="C3">
-        <v>0.004769955743443164</v>
+        <v>-0.01836017872987071</v>
       </c>
       <c r="D3">
-        <v>0.04325074502289009</v>
+        <v>0.0200352379788485</v>
       </c>
       <c r="E3">
-        <v>-0.1010803473103028</v>
+        <v>-0.00795366424630067</v>
       </c>
       <c r="F3">
-        <v>-0.3911279358573092</v>
+        <v>-0.01273666295361891</v>
       </c>
       <c r="G3">
-        <v>-0.1677688449402004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2706879600096087</v>
+      </c>
+      <c r="H3">
+        <v>-0.03580164089979097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05092589127371847</v>
+        <v>0.04712538230385469</v>
       </c>
       <c r="C4">
-        <v>0.03615859048829038</v>
+        <v>0.0009091981925862181</v>
       </c>
       <c r="D4">
-        <v>-0.002828563646299354</v>
+        <v>0.02876967006535632</v>
       </c>
       <c r="E4">
-        <v>-0.0725129624213306</v>
+        <v>0.02095293213108273</v>
       </c>
       <c r="F4">
-        <v>-0.06806657451227063</v>
+        <v>0.05954886234024195</v>
       </c>
       <c r="G4">
-        <v>-0.04627741995694791</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04767699547660856</v>
+      </c>
+      <c r="H4">
+        <v>-0.0264167632255511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01176237787361653</v>
+        <v>0.029601461055485</v>
       </c>
       <c r="C6">
-        <v>-0.0004574009583635041</v>
+        <v>0.001512065788556793</v>
       </c>
       <c r="D6">
-        <v>0.01332610880569887</v>
+        <v>0.03535237770087553</v>
       </c>
       <c r="E6">
-        <v>-0.01307619249040619</v>
+        <v>0.005443808435198419</v>
       </c>
       <c r="F6">
-        <v>-0.01205942665274023</v>
+        <v>0.03679006938476371</v>
       </c>
       <c r="G6">
-        <v>0.002627633675103453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01414168529270602</v>
+      </c>
+      <c r="H6">
+        <v>-0.05216110213859206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02728847609158059</v>
+        <v>0.0205158430089756</v>
       </c>
       <c r="C7">
-        <v>0.02083088432258023</v>
+        <v>0.001264000080818165</v>
       </c>
       <c r="D7">
-        <v>0.02964912344986458</v>
+        <v>0.01658580798536731</v>
       </c>
       <c r="E7">
-        <v>-0.04118383615083759</v>
+        <v>0.03585969279754951</v>
       </c>
       <c r="F7">
-        <v>-0.0611721970920128</v>
+        <v>0.02479708570951575</v>
       </c>
       <c r="G7">
-        <v>-0.05919874033701646</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03708943962549505</v>
+      </c>
+      <c r="H7">
+        <v>-0.0134203882151434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01216477930610628</v>
+        <v>0.003240230796394673</v>
       </c>
       <c r="C8">
-        <v>0.01326131277823207</v>
+        <v>-0.001537946047192489</v>
       </c>
       <c r="D8">
-        <v>-0.005966791205937155</v>
+        <v>0.008436961028627952</v>
       </c>
       <c r="E8">
-        <v>-0.07588048225203969</v>
+        <v>0.01193739394554046</v>
       </c>
       <c r="F8">
-        <v>-0.08082981883724484</v>
+        <v>0.02658636433318403</v>
       </c>
       <c r="G8">
-        <v>-0.06149268172791428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05363717287083992</v>
+      </c>
+      <c r="H8">
+        <v>-0.006205271875824614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0428801684050174</v>
+        <v>0.03797171515025544</v>
       </c>
       <c r="C9">
-        <v>0.0314403826802418</v>
+        <v>-0.00273422273657514</v>
       </c>
       <c r="D9">
-        <v>-0.01461816284739664</v>
+        <v>0.02352346891257159</v>
       </c>
       <c r="E9">
-        <v>-0.06992484395484147</v>
+        <v>0.01857344322492848</v>
       </c>
       <c r="F9">
-        <v>-0.06695414731334889</v>
+        <v>0.0378577294732538</v>
       </c>
       <c r="G9">
-        <v>-0.04758424014526141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.05984379709479535</v>
+      </c>
+      <c r="H9">
+        <v>-0.02473157710931041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05473119944154581</v>
+        <v>0.09176338243518399</v>
       </c>
       <c r="C10">
-        <v>0.0433644296417761</v>
+        <v>-0.03863309364252897</v>
       </c>
       <c r="D10">
-        <v>-0.01253735148449174</v>
+        <v>-0.1438197906632604</v>
       </c>
       <c r="E10">
-        <v>0.1060798746772562</v>
+        <v>-0.01917471513238884</v>
       </c>
       <c r="F10">
-        <v>-0.07692155544185499</v>
+        <v>-0.07874280760843883</v>
       </c>
       <c r="G10">
-        <v>0.04644432995504643</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02635959495594254</v>
+      </c>
+      <c r="H10">
+        <v>-0.004280686714577893</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03295238971013643</v>
+        <v>0.02246325766236069</v>
       </c>
       <c r="C11">
-        <v>0.01223877756875633</v>
+        <v>-0.009882572809036441</v>
       </c>
       <c r="D11">
-        <v>0.01558861486720224</v>
+        <v>0.03189988340259161</v>
       </c>
       <c r="E11">
-        <v>-0.03654090095981922</v>
+        <v>-0.00366589768471459</v>
       </c>
       <c r="F11">
-        <v>-0.03191819062289136</v>
+        <v>0.02379126572728288</v>
       </c>
       <c r="G11">
-        <v>-0.02481541498775433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03489671873580846</v>
+      </c>
+      <c r="H11">
+        <v>-0.02685920521242892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04032705972098686</v>
+        <v>0.03158266473907911</v>
       </c>
       <c r="C12">
-        <v>0.01339115478305975</v>
+        <v>-0.00902048661371419</v>
       </c>
       <c r="D12">
-        <v>0.002395201997945834</v>
+        <v>0.03074403372055447</v>
       </c>
       <c r="E12">
-        <v>-0.04436796757309721</v>
+        <v>0.007202412683280584</v>
       </c>
       <c r="F12">
-        <v>-0.01448306736368175</v>
+        <v>0.02696634933644509</v>
       </c>
       <c r="G12">
-        <v>-0.01773380894342461</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01237875033023039</v>
+      </c>
+      <c r="H12">
+        <v>-0.01385170692350639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01904235567004302</v>
+        <v>0.02494520424594658</v>
       </c>
       <c r="C13">
-        <v>0.02380727372001804</v>
+        <v>0.01203491533356341</v>
       </c>
       <c r="D13">
-        <v>0.03483359122777323</v>
+        <v>0.002291336723341749</v>
       </c>
       <c r="E13">
-        <v>-0.02274575164695841</v>
+        <v>-0.016341476939394</v>
       </c>
       <c r="F13">
-        <v>-0.0886929138261104</v>
+        <v>0.02126439455361927</v>
       </c>
       <c r="G13">
-        <v>-0.03835860631146556</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06608462970536987</v>
+      </c>
+      <c r="H13">
+        <v>-0.02401988145641473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01108331963535656</v>
+        <v>0.01559420021265273</v>
       </c>
       <c r="C14">
-        <v>0.02170014782141884</v>
+        <v>-0.0009910007367998502</v>
       </c>
       <c r="D14">
-        <v>0.002959631781282419</v>
+        <v>0.0009056537031386159</v>
       </c>
       <c r="E14">
-        <v>-0.04122651196728887</v>
+        <v>0.008483824090443823</v>
       </c>
       <c r="F14">
-        <v>-0.06266664124006208</v>
+        <v>0.02594519642515199</v>
       </c>
       <c r="G14">
-        <v>-0.06347414712146769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.0444814513771184</v>
+      </c>
+      <c r="H14">
+        <v>0.02009156593282777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02525330850567089</v>
+        <v>0.02340795646032597</v>
       </c>
       <c r="C16">
-        <v>0.01367165307097319</v>
+        <v>-0.01035375835124339</v>
       </c>
       <c r="D16">
-        <v>0.01289555859100591</v>
+        <v>0.02729983315647139</v>
       </c>
       <c r="E16">
-        <v>-0.03476024355795351</v>
+        <v>0.001125882141028625</v>
       </c>
       <c r="F16">
-        <v>-0.03491902763297652</v>
+        <v>0.02495298313764713</v>
       </c>
       <c r="G16">
-        <v>-0.02646942899874876</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03030310341314136</v>
+      </c>
+      <c r="H16">
+        <v>-0.02087628857258818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.0379151334231653</v>
+        <v>0.03307038152171744</v>
       </c>
       <c r="C19">
-        <v>0.01318506237725441</v>
+        <v>-0.002553412534847461</v>
       </c>
       <c r="D19">
-        <v>0.02028843128178002</v>
+        <v>0.01002243741980279</v>
       </c>
       <c r="E19">
-        <v>-0.05357311196581864</v>
+        <v>-0.001422456263394453</v>
       </c>
       <c r="F19">
-        <v>-0.09393123198150481</v>
+        <v>0.03183948691074199</v>
       </c>
       <c r="G19">
-        <v>-0.04874561258666618</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07009001771686181</v>
+      </c>
+      <c r="H19">
+        <v>-0.03751297462371114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.004833456873275187</v>
+        <v>0.006240532671474945</v>
       </c>
       <c r="C20">
-        <v>0.02224056800948612</v>
+        <v>0.0072495290357825</v>
       </c>
       <c r="D20">
-        <v>0.007468010689749733</v>
+        <v>0.002063590275815639</v>
       </c>
       <c r="E20">
-        <v>-0.03594081293899571</v>
+        <v>0.001650706167840922</v>
       </c>
       <c r="F20">
-        <v>-0.05984176209657887</v>
+        <v>0.01794049662567643</v>
       </c>
       <c r="G20">
-        <v>-0.06420160394357828</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.0501562893141962</v>
+      </c>
+      <c r="H20">
+        <v>0.01007479031369684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003877919963689769</v>
+        <v>0.01994035949827048</v>
       </c>
       <c r="C21">
-        <v>-0.001485709913331804</v>
+        <v>0.00539807224179599</v>
       </c>
       <c r="D21">
-        <v>0.003628097989273435</v>
+        <v>0.001268815534440101</v>
       </c>
       <c r="E21">
-        <v>-0.03745162985498632</v>
+        <v>0.01314399133751977</v>
       </c>
       <c r="F21">
-        <v>-0.07204156759205976</v>
+        <v>0.008800492923144962</v>
       </c>
       <c r="G21">
-        <v>-0.0290684443409489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05488905367809879</v>
+      </c>
+      <c r="H21">
+        <v>-0.007788676870710101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02858216906734289</v>
+        <v>0.02202554749782198</v>
       </c>
       <c r="C24">
-        <v>0.01371623163865076</v>
+        <v>-0.004824945296601759</v>
       </c>
       <c r="D24">
-        <v>0.009803000911922185</v>
+        <v>0.02792982589389087</v>
       </c>
       <c r="E24">
-        <v>-0.02797245918331592</v>
+        <v>0.001105902631139342</v>
       </c>
       <c r="F24">
-        <v>-0.03286015471513803</v>
+        <v>0.02086018569500579</v>
       </c>
       <c r="G24">
-        <v>-0.01902650219389512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.02906555075998624</v>
+      </c>
+      <c r="H24">
+        <v>-0.0265400445659691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03169010297032963</v>
+        <v>0.03318516925894518</v>
       </c>
       <c r="C25">
-        <v>0.01107933382157687</v>
+        <v>-0.004329863162031798</v>
       </c>
       <c r="D25">
-        <v>0.007410111417525442</v>
+        <v>0.02335498225319915</v>
       </c>
       <c r="E25">
-        <v>-0.03640454893989588</v>
+        <v>0.001684555069264398</v>
       </c>
       <c r="F25">
-        <v>-0.03252692715733773</v>
+        <v>0.0250771343647519</v>
       </c>
       <c r="G25">
-        <v>-0.007171752677118432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03280225344715607</v>
+      </c>
+      <c r="H25">
+        <v>-0.02867477470853438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01808384901812846</v>
+        <v>0.01879057541939337</v>
       </c>
       <c r="C26">
-        <v>-5.967593378212982e-05</v>
+        <v>0.01661201662397456</v>
       </c>
       <c r="D26">
-        <v>0.03580512727888638</v>
+        <v>0.003107642534758479</v>
       </c>
       <c r="E26">
-        <v>-0.04489596981692937</v>
+        <v>-0.00625449249125424</v>
       </c>
       <c r="F26">
-        <v>-0.05443493184323576</v>
+        <v>0.005922047138993295</v>
       </c>
       <c r="G26">
-        <v>-0.03087815414221813</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03748546707713847</v>
+      </c>
+      <c r="H26">
+        <v>0.003312977439292869</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07523552456054619</v>
+        <v>0.03218885918586565</v>
       </c>
       <c r="C27">
-        <v>0.04997082024542573</v>
+        <v>-0.01503175199939339</v>
       </c>
       <c r="D27">
-        <v>0.0009155210306466722</v>
+        <v>0.009464986199251003</v>
       </c>
       <c r="E27">
-        <v>-0.05954126201115265</v>
+        <v>0.004042047968945599</v>
       </c>
       <c r="F27">
-        <v>-0.05145873472009088</v>
+        <v>0.02734380826057223</v>
       </c>
       <c r="G27">
-        <v>-0.05657369211442198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02777977178282308</v>
+      </c>
+      <c r="H27">
+        <v>0.002010860062693302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08019139854820377</v>
+        <v>0.1409028400347779</v>
       </c>
       <c r="C28">
-        <v>0.06064698225936489</v>
+        <v>-0.0453952938669023</v>
       </c>
       <c r="D28">
-        <v>-0.032339260487793</v>
+        <v>-0.2144697708699072</v>
       </c>
       <c r="E28">
-        <v>0.1726810490660495</v>
+        <v>-0.02382752748103985</v>
       </c>
       <c r="F28">
-        <v>-0.09838581334780359</v>
+        <v>-0.107292732646624</v>
       </c>
       <c r="G28">
-        <v>0.0299594646974696</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.0125574074877878</v>
+      </c>
+      <c r="H28">
+        <v>0.009368352027640298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01871614854835341</v>
+        <v>0.02018018426684052</v>
       </c>
       <c r="C29">
-        <v>0.02438139921776682</v>
+        <v>-0.003467353473638367</v>
       </c>
       <c r="D29">
-        <v>-0.006110863241864527</v>
+        <v>0.002894222109155149</v>
       </c>
       <c r="E29">
-        <v>-0.05950257706053805</v>
+        <v>0.01082126519492345</v>
       </c>
       <c r="F29">
-        <v>-0.04080241041080712</v>
+        <v>0.0289050328482894</v>
       </c>
       <c r="G29">
-        <v>-0.06465211801328878</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03583411831697179</v>
+      </c>
+      <c r="H29">
+        <v>0.0213865460326265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08696109983404518</v>
+        <v>0.05496032356530469</v>
       </c>
       <c r="C30">
-        <v>0.05592065703851681</v>
+        <v>-0.0005297346542448833</v>
       </c>
       <c r="D30">
-        <v>0.03688650547036674</v>
+        <v>0.05424595726591672</v>
       </c>
       <c r="E30">
-        <v>-0.08916278073267701</v>
+        <v>-0.03552212160077032</v>
       </c>
       <c r="F30">
-        <v>-0.04661364866715756</v>
+        <v>0.07651548914021153</v>
       </c>
       <c r="G30">
-        <v>-0.04719169916591625</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06334644155614662</v>
+      </c>
+      <c r="H30">
+        <v>-0.03578906064468493</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05977854423489374</v>
+        <v>0.05415116018813761</v>
       </c>
       <c r="C31">
-        <v>0.01637567840115452</v>
+        <v>-0.01857384912744633</v>
       </c>
       <c r="D31">
-        <v>0.04923528194006373</v>
+        <v>0.0243800113843165</v>
       </c>
       <c r="E31">
-        <v>-0.03962262169747507</v>
+        <v>-0.009787355892411266</v>
       </c>
       <c r="F31">
-        <v>-0.03082955376904508</v>
+        <v>0.02209279171495481</v>
       </c>
       <c r="G31">
-        <v>-0.07905186217168753</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02407708194901109</v>
+      </c>
+      <c r="H31">
+        <v>0.01687865670563601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01696680544522539</v>
+        <v>0.01159616322770869</v>
       </c>
       <c r="C32">
-        <v>0.02392116288217326</v>
+        <v>-0.01601714071032673</v>
       </c>
       <c r="D32">
-        <v>-0.002324762835805008</v>
+        <v>-0.007667547394172368</v>
       </c>
       <c r="E32">
-        <v>-0.07264595503533071</v>
+        <v>0.01796560238586324</v>
       </c>
       <c r="F32">
-        <v>-0.05951179063511352</v>
+        <v>0.04297556843850079</v>
       </c>
       <c r="G32">
-        <v>-0.04741266332673223</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05244375823524997</v>
+      </c>
+      <c r="H32">
+        <v>-0.04171020263291912</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0524999049165603</v>
+        <v>0.03806296383222443</v>
       </c>
       <c r="C33">
-        <v>0.002787248114260676</v>
+        <v>-0.002800792513078668</v>
       </c>
       <c r="D33">
-        <v>0.04598738351902164</v>
+        <v>0.03104796201796663</v>
       </c>
       <c r="E33">
-        <v>-0.0765418196869521</v>
+        <v>-0.02312656328287561</v>
       </c>
       <c r="F33">
-        <v>-0.08529276210434199</v>
+        <v>0.01555871756121292</v>
       </c>
       <c r="G33">
-        <v>-0.05416849964715716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06229566161829201</v>
+      </c>
+      <c r="H33">
+        <v>-0.01508478870273576</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0304442737509077</v>
+        <v>0.02624183987129681</v>
       </c>
       <c r="C34">
-        <v>0.01729111542322321</v>
+        <v>-0.01873331825402614</v>
       </c>
       <c r="D34">
-        <v>0.01206192310624479</v>
+        <v>0.02769820531469309</v>
       </c>
       <c r="E34">
-        <v>-0.04246438832303898</v>
+        <v>0.005629810242056812</v>
       </c>
       <c r="F34">
-        <v>-0.03714837739156993</v>
+        <v>0.02622520660831953</v>
       </c>
       <c r="G34">
-        <v>-0.01795106311898289</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02757730809799245</v>
+      </c>
+      <c r="H34">
+        <v>-0.02428610667162144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01291691664913614</v>
+        <v>0.01885199705106781</v>
       </c>
       <c r="C36">
-        <v>0.01320421393447203</v>
+        <v>0.002769842341107237</v>
       </c>
       <c r="D36">
-        <v>0.001229734460448523</v>
+        <v>-0.003445435914474125</v>
       </c>
       <c r="E36">
-        <v>-0.03034314302821691</v>
+        <v>0.002744039587615963</v>
       </c>
       <c r="F36">
-        <v>-0.02224587368270431</v>
+        <v>0.008917365813600111</v>
       </c>
       <c r="G36">
-        <v>-0.03562191254415102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.01966945498034822</v>
+      </c>
+      <c r="H36">
+        <v>0.005413513215615034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.005860076066867061</v>
+        <v>0.01688925634829637</v>
       </c>
       <c r="C38">
-        <v>-0.004546514067732342</v>
+        <v>-0.01660593197226681</v>
       </c>
       <c r="D38">
-        <v>-0.01132826382458021</v>
+        <v>-0.001982643830377273</v>
       </c>
       <c r="E38">
-        <v>0.007104648728842971</v>
+        <v>0.005405040491951437</v>
       </c>
       <c r="F38">
-        <v>-0.009059024050903693</v>
+        <v>0.009043544349894819</v>
       </c>
       <c r="G38">
-        <v>0.012001654614486</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02796594448539194</v>
+      </c>
+      <c r="H38">
+        <v>-0.02072146705949408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03863327521293793</v>
+        <v>0.02400244462456595</v>
       </c>
       <c r="C39">
-        <v>0.02225035198371131</v>
+        <v>-0.002998810668786573</v>
       </c>
       <c r="D39">
-        <v>0.03059714665711906</v>
+        <v>0.06484925030376271</v>
       </c>
       <c r="E39">
-        <v>-0.04549401845551327</v>
+        <v>-0.002026244327148509</v>
       </c>
       <c r="F39">
-        <v>-0.04315350547882203</v>
+        <v>0.04546169645625417</v>
       </c>
       <c r="G39">
-        <v>-0.02436303755621042</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05514709135271621</v>
+      </c>
+      <c r="H39">
+        <v>-0.04930359486744562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02987167795502941</v>
+        <v>0.02764536534331368</v>
       </c>
       <c r="C40">
-        <v>0.03952089256920695</v>
+        <v>-0.001988566926049722</v>
       </c>
       <c r="D40">
-        <v>0.05565759406322558</v>
+        <v>0.02070998493467501</v>
       </c>
       <c r="E40">
-        <v>-0.03992780877902348</v>
+        <v>-0.01956599958127547</v>
       </c>
       <c r="F40">
-        <v>-0.08038368213986277</v>
+        <v>0.03688719961325375</v>
       </c>
       <c r="G40">
-        <v>-0.05811581280648329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.04228329054372595</v>
+      </c>
+      <c r="H40">
+        <v>-0.04291809525360084</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001980897237754047</v>
+        <v>0.008109711456026854</v>
       </c>
       <c r="C41">
-        <v>-0.007660379879527134</v>
+        <v>0.0007086312573342118</v>
       </c>
       <c r="D41">
-        <v>0.007202902509277105</v>
+        <v>-0.009125858247928593</v>
       </c>
       <c r="E41">
-        <v>-0.02302547568556729</v>
+        <v>-0.001688065467085748</v>
       </c>
       <c r="F41">
-        <v>-0.0119300504534756</v>
+        <v>-0.004135612695333146</v>
       </c>
       <c r="G41">
-        <v>-0.057199365382689</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008574946666506661</v>
+      </c>
+      <c r="H41">
+        <v>0.01865600875635759</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3556213071161336</v>
+        <v>0.1963887929527033</v>
       </c>
       <c r="C42">
-        <v>-0.8923402661186978</v>
+        <v>0.1009073815852484</v>
       </c>
       <c r="D42">
-        <v>0.1890455170756284</v>
+        <v>0.5744241919301591</v>
       </c>
       <c r="E42">
-        <v>0.1005466488275509</v>
+        <v>-0.1215529629149854</v>
       </c>
       <c r="F42">
-        <v>0.02828654240279481</v>
+        <v>-0.7643196069837261</v>
       </c>
       <c r="G42">
-        <v>-0.01791167981059417</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.0704774922201442</v>
+      </c>
+      <c r="H42">
+        <v>-0.01431250337031128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007092499204342506</v>
+        <v>0.006801154547294522</v>
       </c>
       <c r="C43">
-        <v>-0.003430124409730455</v>
+        <v>0.002563835340006458</v>
       </c>
       <c r="D43">
-        <v>0.01027314772554078</v>
+        <v>-0.01236542556934723</v>
       </c>
       <c r="E43">
-        <v>-0.02550388793060698</v>
+        <v>-0.006085678018020271</v>
       </c>
       <c r="F43">
-        <v>-0.03058400884579191</v>
+        <v>-0.009236545888979866</v>
       </c>
       <c r="G43">
-        <v>-0.05146719441730334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.0171421654698945</v>
+      </c>
+      <c r="H43">
+        <v>0.01123883660970161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.0190422942705443</v>
+        <v>0.01323497200032315</v>
       </c>
       <c r="C44">
-        <v>0.002463592802465357</v>
+        <v>-0.0005395679308215073</v>
       </c>
       <c r="D44">
-        <v>0.0243504310918699</v>
+        <v>0.02214555075382411</v>
       </c>
       <c r="E44">
-        <v>-0.07299787479565073</v>
+        <v>0.00143244006900111</v>
       </c>
       <c r="F44">
-        <v>-0.1708773727372751</v>
+        <v>0.006015252286950156</v>
       </c>
       <c r="G44">
-        <v>-0.1649778221705498</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08807164529503164</v>
+      </c>
+      <c r="H44">
+        <v>-0.01312784334840326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01797708036834436</v>
+        <v>0.02027038474790788</v>
       </c>
       <c r="C46">
-        <v>0.02328896681389384</v>
+        <v>0.0005324331286937593</v>
       </c>
       <c r="D46">
-        <v>0.01941249450564705</v>
+        <v>0.005473758174972724</v>
       </c>
       <c r="E46">
-        <v>-0.06963217017095305</v>
+        <v>-0.001382885771182255</v>
       </c>
       <c r="F46">
-        <v>-0.06039128187689966</v>
+        <v>0.03349114635686609</v>
       </c>
       <c r="G46">
-        <v>-0.05788614376995207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05718791523084945</v>
+      </c>
+      <c r="H46">
+        <v>0.01503256651991378</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09597898573708767</v>
+        <v>0.07464497522599059</v>
       </c>
       <c r="C47">
-        <v>0.03507746448146139</v>
+        <v>-0.0358981642053119</v>
       </c>
       <c r="D47">
-        <v>0.02581657759860007</v>
+        <v>0.02982282466024326</v>
       </c>
       <c r="E47">
-        <v>-0.04162884626436529</v>
+        <v>-0.0055466122334565</v>
       </c>
       <c r="F47">
-        <v>0.002895958836666549</v>
+        <v>0.03281435944420687</v>
       </c>
       <c r="G47">
-        <v>-0.08777732578518703</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008901605816845671</v>
+      </c>
+      <c r="H47">
+        <v>0.0328191350091958</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0114631374958939</v>
+        <v>0.0190052492872003</v>
       </c>
       <c r="C48">
-        <v>0.00611186006504211</v>
+        <v>-0.007144840613815922</v>
       </c>
       <c r="D48">
-        <v>0.01420057666670288</v>
+        <v>0.003475395905899466</v>
       </c>
       <c r="E48">
-        <v>-0.04103874664989436</v>
+        <v>-0.001825469278461799</v>
       </c>
       <c r="F48">
-        <v>-0.03875101757988523</v>
+        <v>0.01150580866676618</v>
       </c>
       <c r="G48">
-        <v>-0.01986889577727093</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.027147879529683</v>
+      </c>
+      <c r="H48">
+        <v>0.001151104354514433</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08745271951351982</v>
+        <v>0.06648153395095106</v>
       </c>
       <c r="C50">
-        <v>0.01454061952612238</v>
+        <v>-0.02915864372268616</v>
       </c>
       <c r="D50">
-        <v>0.0373711652659092</v>
+        <v>0.04259746303996772</v>
       </c>
       <c r="E50">
-        <v>-0.06132246855801836</v>
+        <v>0.009673700348487977</v>
       </c>
       <c r="F50">
-        <v>-0.01890339795863372</v>
+        <v>0.02843183718357961</v>
       </c>
       <c r="G50">
-        <v>-0.04219740159211158</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02342041644446723</v>
+      </c>
+      <c r="H50">
+        <v>0.02880681623949767</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02540787481093979</v>
+        <v>0.02073612368472399</v>
       </c>
       <c r="C51">
-        <v>0.01810979248447094</v>
+        <v>-0.001599045850708614</v>
       </c>
       <c r="D51">
-        <v>0.03314745097260821</v>
+        <v>-0.01005977000324968</v>
       </c>
       <c r="E51">
-        <v>-0.04118329271849382</v>
+        <v>-0.00721640755784075</v>
       </c>
       <c r="F51">
-        <v>-0.1250988683379287</v>
+        <v>-0.0009461118618526976</v>
       </c>
       <c r="G51">
-        <v>-0.04362543789713712</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07374701384313691</v>
+      </c>
+      <c r="H51">
+        <v>-0.02321940744850921</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1044259127183351</v>
+        <v>0.09503095207716809</v>
       </c>
       <c r="C53">
-        <v>0.04904311288343263</v>
+        <v>-0.04490484462184992</v>
       </c>
       <c r="D53">
-        <v>0.04260589931975881</v>
+        <v>0.05784193116549104</v>
       </c>
       <c r="E53">
-        <v>-0.04713718955310869</v>
+        <v>-0.003807712135610493</v>
       </c>
       <c r="F53">
-        <v>0.05673775341917432</v>
+        <v>0.06666799108131824</v>
       </c>
       <c r="G53">
-        <v>-0.03140086428343074</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.0561786240616623</v>
+      </c>
+      <c r="H53">
+        <v>0.03645239565553608</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01819875694330037</v>
+        <v>0.02361016294138001</v>
       </c>
       <c r="C54">
-        <v>0.0378522147757803</v>
+        <v>-0.01481154294203661</v>
       </c>
       <c r="D54">
-        <v>0.001193332684746105</v>
+        <v>-0.02392771878311828</v>
       </c>
       <c r="E54">
-        <v>-0.0364970560860423</v>
+        <v>0.003927379111195424</v>
       </c>
       <c r="F54">
-        <v>-0.0675210136247474</v>
+        <v>0.01264523728080033</v>
       </c>
       <c r="G54">
-        <v>-0.069161725268035</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03842269055152694</v>
+      </c>
+      <c r="H54">
+        <v>0.01758495225110718</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1013033361610357</v>
+        <v>0.08123021941121919</v>
       </c>
       <c r="C55">
-        <v>0.03225535036394034</v>
+        <v>-0.03919048934114785</v>
       </c>
       <c r="D55">
-        <v>0.003043135217020899</v>
+        <v>0.0583691042187353</v>
       </c>
       <c r="E55">
-        <v>-0.05479931922391346</v>
+        <v>0.008262139686069786</v>
       </c>
       <c r="F55">
-        <v>0.05180405968944305</v>
+        <v>0.05589122940971786</v>
       </c>
       <c r="G55">
-        <v>-0.06927696644005236</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03607476102315168</v>
+      </c>
+      <c r="H55">
+        <v>0.04745533561930285</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1471411471843532</v>
+        <v>0.1278771984811902</v>
       </c>
       <c r="C56">
-        <v>0.07824961304389748</v>
+        <v>-0.06665832591218236</v>
       </c>
       <c r="D56">
-        <v>0.02872896309752366</v>
+        <v>0.07702928533770724</v>
       </c>
       <c r="E56">
-        <v>-0.05936609861404756</v>
+        <v>9.116598163076875e-05</v>
       </c>
       <c r="F56">
-        <v>0.1636583614072596</v>
+        <v>0.09372461309824445</v>
       </c>
       <c r="G56">
-        <v>-0.001980429103249398</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1028830771064498</v>
+      </c>
+      <c r="H56">
+        <v>0.02834255854829545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04490306546716748</v>
+        <v>0.04508726927062354</v>
       </c>
       <c r="C57">
-        <v>0.01040672846506488</v>
+        <v>0.005320524185427643</v>
       </c>
       <c r="D57">
-        <v>0.03629264268916477</v>
+        <v>0.01926187357133606</v>
       </c>
       <c r="E57">
-        <v>-0.009211612766147671</v>
+        <v>-0.01193181560290381</v>
       </c>
       <c r="F57">
-        <v>-0.07111477411915411</v>
+        <v>0.02407685243483372</v>
       </c>
       <c r="G57">
-        <v>-0.04358043417108304</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.0624667028383674</v>
+      </c>
+      <c r="H57">
+        <v>-0.009983581073013734</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1933301486438811</v>
+        <v>0.1437549574114109</v>
       </c>
       <c r="C58">
-        <v>0.04845153986950989</v>
+        <v>-0.05207958071775313</v>
       </c>
       <c r="D58">
-        <v>0.1125325476689929</v>
+        <v>0.1256815262517794</v>
       </c>
       <c r="E58">
-        <v>-0.2680336126616799</v>
+        <v>-0.1146219654614476</v>
       </c>
       <c r="F58">
-        <v>-0.2192098628447474</v>
+        <v>0.06037905823147412</v>
       </c>
       <c r="G58">
-        <v>0.06723779186232703</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6809524051533546</v>
+      </c>
+      <c r="H58">
+        <v>0.5406497407095824</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07634875779719899</v>
+        <v>0.1431206429182375</v>
       </c>
       <c r="C59">
-        <v>0.08267929126294211</v>
+        <v>-0.05256862421357542</v>
       </c>
       <c r="D59">
-        <v>-0.02149735241663353</v>
+        <v>-0.2125236623477448</v>
       </c>
       <c r="E59">
-        <v>0.1431604449456434</v>
+        <v>-0.0413867340810589</v>
       </c>
       <c r="F59">
-        <v>-0.09450814431830075</v>
+        <v>-0.08809271126437637</v>
       </c>
       <c r="G59">
-        <v>0.0350937820231302</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02064107951938083</v>
+      </c>
+      <c r="H59">
+        <v>-0.02110226630671997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1651259873285364</v>
+        <v>0.1670459491074372</v>
       </c>
       <c r="C60">
-        <v>0.05340961107058015</v>
+        <v>-0.05000585348572496</v>
       </c>
       <c r="D60">
-        <v>0.07538437801802841</v>
+        <v>0.01497367489100038</v>
       </c>
       <c r="E60">
-        <v>-0.04223828750912445</v>
+        <v>-0.05565191331980931</v>
       </c>
       <c r="F60">
-        <v>-0.1343378059168086</v>
+        <v>0.05745822792144983</v>
       </c>
       <c r="G60">
-        <v>0.3103760299252988</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1291334986706995</v>
+      </c>
+      <c r="H60">
+        <v>-0.3749014553161327</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02183948447665794</v>
+        <v>0.02368349505186926</v>
       </c>
       <c r="C61">
-        <v>0.01247423534923011</v>
+        <v>-0.008567734491841244</v>
       </c>
       <c r="D61">
-        <v>0.006116548757558016</v>
+        <v>0.03401487559477442</v>
       </c>
       <c r="E61">
-        <v>-0.02062990744053271</v>
+        <v>0.002552446193334375</v>
       </c>
       <c r="F61">
-        <v>-0.02857295253108495</v>
+        <v>0.03198732287450191</v>
       </c>
       <c r="G61">
-        <v>-0.02749348387702837</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03217188665250613</v>
+      </c>
+      <c r="H61">
+        <v>-0.0371123768081173</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01911994782852426</v>
+        <v>0.01474251966759686</v>
       </c>
       <c r="C63">
-        <v>0.01709995387448835</v>
+        <v>-0.0002212611001190657</v>
       </c>
       <c r="D63">
-        <v>0.01312429080379531</v>
+        <v>0.004637802650933481</v>
       </c>
       <c r="E63">
-        <v>-0.04236780008603865</v>
+        <v>0.002049909804700391</v>
       </c>
       <c r="F63">
-        <v>-0.008252489802316736</v>
+        <v>0.02196928032333616</v>
       </c>
       <c r="G63">
-        <v>-0.04126377699549827</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01543798586809663</v>
+      </c>
+      <c r="H63">
+        <v>0.01408163975842245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03411486115340908</v>
+        <v>0.03951196096714844</v>
       </c>
       <c r="C64">
-        <v>0.02489295881567233</v>
+        <v>-0.01295736136586596</v>
       </c>
       <c r="D64">
-        <v>-0.02005803264626843</v>
+        <v>0.02961772101293149</v>
       </c>
       <c r="E64">
-        <v>-0.04340473352223267</v>
+        <v>0.0113966174741374</v>
       </c>
       <c r="F64">
-        <v>-0.01981931460739501</v>
+        <v>0.02687346385583064</v>
       </c>
       <c r="G64">
-        <v>-0.06396407579389797</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.01987345941382351</v>
+      </c>
+      <c r="H64">
+        <v>-0.0258439780352399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01217278082334157</v>
+        <v>0.03516200845983845</v>
       </c>
       <c r="C65">
-        <v>-0.001705274530964899</v>
+        <v>0.001271021925775052</v>
       </c>
       <c r="D65">
-        <v>0.01192473392403726</v>
+        <v>0.04050975898905163</v>
       </c>
       <c r="E65">
-        <v>-0.0100588149609847</v>
+        <v>0.005475375776379317</v>
       </c>
       <c r="F65">
-        <v>-0.008839322589381584</v>
+        <v>0.03773240979335785</v>
       </c>
       <c r="G65">
-        <v>0.006537973921810655</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.00276094057841312</v>
+      </c>
+      <c r="H65">
+        <v>-0.06024136370127069</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03799617532274192</v>
+        <v>0.03163177331692683</v>
       </c>
       <c r="C66">
-        <v>0.02749508507648683</v>
+        <v>-0.00895163202279917</v>
       </c>
       <c r="D66">
-        <v>0.02285016284195759</v>
+        <v>0.07207773310073072</v>
       </c>
       <c r="E66">
-        <v>-0.04336594179549162</v>
+        <v>-0.007377258602811795</v>
       </c>
       <c r="F66">
-        <v>-0.03808335768406462</v>
+        <v>0.06452639856426369</v>
       </c>
       <c r="G66">
-        <v>-0.01173513481396746</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04687104345141087</v>
+      </c>
+      <c r="H66">
+        <v>-0.05903520778651587</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02655804291988172</v>
+        <v>0.03748507928177859</v>
       </c>
       <c r="C67">
-        <v>0.00331506842842993</v>
+        <v>-0.02174864331298846</v>
       </c>
       <c r="D67">
-        <v>-0.01163301915773409</v>
+        <v>-0.008099220191578079</v>
       </c>
       <c r="E67">
-        <v>0.02870803713952427</v>
+        <v>0.001864146184884513</v>
       </c>
       <c r="F67">
-        <v>-0.01828261831883393</v>
+        <v>0.01118040515744895</v>
       </c>
       <c r="G67">
-        <v>0.008613981473855526</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.016708798347667</v>
+      </c>
+      <c r="H67">
+        <v>-0.03224534726669426</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08406743835839327</v>
+        <v>0.1449827888410845</v>
       </c>
       <c r="C68">
-        <v>0.06124484593192969</v>
+        <v>-0.03081530659526128</v>
       </c>
       <c r="D68">
-        <v>-0.03617095931167828</v>
+        <v>-0.1979864758648746</v>
       </c>
       <c r="E68">
-        <v>0.1686050117995497</v>
+        <v>-0.03605863779092164</v>
       </c>
       <c r="F68">
-        <v>-0.07102070108865789</v>
+        <v>-0.1079782075357708</v>
       </c>
       <c r="G68">
-        <v>0.08221549308567405</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01978472873388196</v>
+      </c>
+      <c r="H68">
+        <v>0.03942864906697839</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0735988932132705</v>
+        <v>0.05738443548601958</v>
       </c>
       <c r="C69">
-        <v>0.03291557677353544</v>
+        <v>-0.03229913716818047</v>
       </c>
       <c r="D69">
-        <v>0.02709359062494316</v>
+        <v>0.02808166931489493</v>
       </c>
       <c r="E69">
-        <v>-0.008964299245777746</v>
+        <v>-0.004786904565994794</v>
       </c>
       <c r="F69">
-        <v>-0.01299668150818911</v>
+        <v>0.03105063296658796</v>
       </c>
       <c r="G69">
-        <v>-0.08191086316963561</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.002749512966475691</v>
+      </c>
+      <c r="H69">
+        <v>0.01283481335671425</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1057394225666878</v>
+        <v>0.1391726984034335</v>
       </c>
       <c r="C71">
-        <v>0.06688176804794342</v>
+        <v>-0.03877228714531794</v>
       </c>
       <c r="D71">
-        <v>-0.01321298536656343</v>
+        <v>-0.1842586215177459</v>
       </c>
       <c r="E71">
-        <v>0.2100492703457877</v>
+        <v>-0.03671123207797722</v>
       </c>
       <c r="F71">
-        <v>-0.0922686770680812</v>
+        <v>-0.113054311814474</v>
       </c>
       <c r="G71">
-        <v>0.05457177303766164</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01901368277347572</v>
+      </c>
+      <c r="H71">
+        <v>0.0236388677718059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1088089171551206</v>
+        <v>0.08735006126849454</v>
       </c>
       <c r="C72">
-        <v>0.09307543852677881</v>
+        <v>-0.04931626697234006</v>
       </c>
       <c r="D72">
-        <v>0.0198921569127322</v>
+        <v>0.05924375822493026</v>
       </c>
       <c r="E72">
-        <v>-0.0786185841102315</v>
+        <v>-0.009278174481276198</v>
       </c>
       <c r="F72">
-        <v>-0.08876680524109098</v>
+        <v>0.1094441413165347</v>
       </c>
       <c r="G72">
-        <v>0.1041841578423332</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.09760138787506881</v>
+      </c>
+      <c r="H72">
+        <v>-0.1491511382047875</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2505004141730073</v>
+        <v>0.2387630075042539</v>
       </c>
       <c r="C73">
-        <v>0.08162560354600178</v>
+        <v>-0.06748068315835051</v>
       </c>
       <c r="D73">
-        <v>0.07067115616769831</v>
+        <v>0.05017883544726241</v>
       </c>
       <c r="E73">
-        <v>-0.001442863343314403</v>
+        <v>-0.08536077170265968</v>
       </c>
       <c r="F73">
-        <v>-0.2208434627956133</v>
+        <v>0.07485897386059</v>
       </c>
       <c r="G73">
-        <v>0.4434409758328134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1852066961437241</v>
+      </c>
+      <c r="H73">
+        <v>-0.5139372328892837</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1231513025129071</v>
+        <v>0.1142287552874221</v>
       </c>
       <c r="C74">
-        <v>0.04014495376489259</v>
+        <v>-0.05899752171816681</v>
       </c>
       <c r="D74">
-        <v>0.03623692264574967</v>
+        <v>0.07772831093872959</v>
       </c>
       <c r="E74">
-        <v>-0.02679960978955908</v>
+        <v>-0.007684955710933744</v>
       </c>
       <c r="F74">
-        <v>0.0991073475929895</v>
+        <v>0.0769440912925321</v>
       </c>
       <c r="G74">
-        <v>0.02325088840892781</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07717513995998014</v>
+      </c>
+      <c r="H74">
+        <v>0.009017946360779612</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.218852642861505</v>
+        <v>0.2265940313522839</v>
       </c>
       <c r="C75">
-        <v>0.1181708954798743</v>
+        <v>-0.1192207253858868</v>
       </c>
       <c r="D75">
-        <v>0.06941564113669749</v>
+        <v>0.1186949994797665</v>
       </c>
       <c r="E75">
-        <v>-0.08287676495749741</v>
+        <v>-0.02686789066674601</v>
       </c>
       <c r="F75">
-        <v>0.1789270860474532</v>
+        <v>0.1547672491964319</v>
       </c>
       <c r="G75">
-        <v>-0.04337782060850041</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1602657937413828</v>
+      </c>
+      <c r="H75">
+        <v>0.09104764682105933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2658937851135943</v>
+        <v>0.2080428643591284</v>
       </c>
       <c r="C76">
-        <v>0.1222262296265383</v>
+        <v>-0.1134852272864442</v>
       </c>
       <c r="D76">
-        <v>0.009664595787936485</v>
+        <v>0.1070307732825827</v>
       </c>
       <c r="E76">
-        <v>-0.04684893322321702</v>
+        <v>0.01395718113952946</v>
       </c>
       <c r="F76">
-        <v>0.2051807342458605</v>
+        <v>0.1474935944568168</v>
       </c>
       <c r="G76">
-        <v>-0.0478834673578911</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1732303972677689</v>
+      </c>
+      <c r="H76">
+        <v>0.09169798904192608</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1391602679855204</v>
+        <v>0.07479259101871628</v>
       </c>
       <c r="C77">
-        <v>-0.02170249010026368</v>
+        <v>-0.01415162774321694</v>
       </c>
       <c r="D77">
-        <v>0.06672652693879355</v>
+        <v>0.07279774335769573</v>
       </c>
       <c r="E77">
-        <v>-0.1215579464921576</v>
+        <v>-0.01359048203919306</v>
       </c>
       <c r="F77">
-        <v>-0.2283694518916619</v>
+        <v>0.00329988939532974</v>
       </c>
       <c r="G77">
-        <v>-0.1202027303633013</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1327224866395446</v>
+      </c>
+      <c r="H77">
+        <v>0.06707709956076424</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05082928847947926</v>
+        <v>0.03513793611537156</v>
       </c>
       <c r="C78">
-        <v>0.01427016988089899</v>
+        <v>-0.0119234983362733</v>
       </c>
       <c r="D78">
-        <v>0.03255063901534972</v>
+        <v>0.05796967801722121</v>
       </c>
       <c r="E78">
-        <v>-0.1121292931149005</v>
+        <v>0.003797149398622865</v>
       </c>
       <c r="F78">
-        <v>-0.02321698869764899</v>
+        <v>0.0534419413085638</v>
       </c>
       <c r="G78">
-        <v>-0.05355286661710376</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05183909679193353</v>
+      </c>
+      <c r="H78">
+        <v>-0.02797629658884421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2204177966061348</v>
+        <v>0.177422552226614</v>
       </c>
       <c r="C80">
-        <v>-0.1435428252421331</v>
+        <v>-0.06686909431405627</v>
       </c>
       <c r="D80">
-        <v>-0.9273661832538659</v>
+        <v>0.01488365858484951</v>
       </c>
       <c r="E80">
-        <v>-0.2210172178280104</v>
+        <v>0.9604641683409723</v>
       </c>
       <c r="F80">
-        <v>-0.04226047366835385</v>
+        <v>-0.1215151928505744</v>
       </c>
       <c r="G80">
-        <v>0.03811008125073164</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09736164293846669</v>
+      </c>
+      <c r="H80">
+        <v>-0.009240817621391133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.156418206620774</v>
+        <v>0.1506656522444531</v>
       </c>
       <c r="C81">
-        <v>0.09807685771604241</v>
+        <v>-0.07895071211756892</v>
       </c>
       <c r="D81">
-        <v>0.01843390726332722</v>
+        <v>0.06984906767131968</v>
       </c>
       <c r="E81">
-        <v>-0.04586471293418234</v>
+        <v>-0.002339478764283171</v>
       </c>
       <c r="F81">
-        <v>0.1746035864087551</v>
+        <v>0.103164686316947</v>
       </c>
       <c r="G81">
-        <v>-0.005775561286539263</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1030609117534083</v>
+      </c>
+      <c r="H81">
+        <v>0.06648287269243359</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05105884148493109</v>
+        <v>0.03797194310132261</v>
       </c>
       <c r="C83">
-        <v>-0.006720521753470971</v>
+        <v>-0.01003298434575673</v>
       </c>
       <c r="D83">
-        <v>0.03824154676835721</v>
+        <v>0.01951069632471573</v>
       </c>
       <c r="E83">
-        <v>-0.0395163307991591</v>
+        <v>-0.01267011334702796</v>
       </c>
       <c r="F83">
-        <v>-0.05890465572495471</v>
+        <v>0.01358850431456453</v>
       </c>
       <c r="G83">
-        <v>-0.04922298323448496</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05858695330184314</v>
+      </c>
+      <c r="H83">
+        <v>-0.01411422439504623</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2311144619865203</v>
+        <v>0.2115772265657191</v>
       </c>
       <c r="C85">
-        <v>0.104218045440037</v>
+        <v>-0.0991108348007923</v>
       </c>
       <c r="D85">
-        <v>0.04190652057371552</v>
+        <v>0.1260198062719478</v>
       </c>
       <c r="E85">
-        <v>-0.04709260344648881</v>
+        <v>-0.01679215809802318</v>
       </c>
       <c r="F85">
-        <v>0.2015245441124013</v>
+        <v>0.1379009461070182</v>
       </c>
       <c r="G85">
-        <v>-0.07237797534031462</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1694536813139185</v>
+      </c>
+      <c r="H85">
+        <v>0.06220928435667446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00292226453279354</v>
+        <v>0.01373035873023263</v>
       </c>
       <c r="C86">
-        <v>-0.008549908745672064</v>
+        <v>0.00123386421126143</v>
       </c>
       <c r="D86">
-        <v>0.001161696946330192</v>
+        <v>0.004296899094882152</v>
       </c>
       <c r="E86">
-        <v>-0.05226187047347576</v>
+        <v>-0.008897893956086185</v>
       </c>
       <c r="F86">
-        <v>-0.07518036159118256</v>
+        <v>-0.001970460454910851</v>
       </c>
       <c r="G86">
-        <v>-0.02588506943635511</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.0870105229174119</v>
+      </c>
+      <c r="H86">
+        <v>-0.03721819756320056</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03096893571053193</v>
+        <v>0.02750926732829605</v>
       </c>
       <c r="C87">
-        <v>0.008144654893258722</v>
+        <v>-0.004551163961828631</v>
       </c>
       <c r="D87">
-        <v>0.01479542850882786</v>
+        <v>0.02590014326642889</v>
       </c>
       <c r="E87">
-        <v>-0.03469076243660828</v>
+        <v>-0.001150570647968391</v>
       </c>
       <c r="F87">
-        <v>-0.07579999051242421</v>
+        <v>0.02655915372104123</v>
       </c>
       <c r="G87">
-        <v>-0.003840051633950237</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.093684089072528</v>
+      </c>
+      <c r="H87">
+        <v>-0.0272091451271008</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.00972906382920471</v>
+        <v>0.0384841125003823</v>
       </c>
       <c r="C88">
-        <v>0.01750659281632356</v>
+        <v>0.007335449512006301</v>
       </c>
       <c r="D88">
-        <v>-0.02380958926539229</v>
+        <v>-0.005483070567877816</v>
       </c>
       <c r="E88">
-        <v>0.003243902852890592</v>
+        <v>0.007364929063855891</v>
       </c>
       <c r="F88">
-        <v>-0.03619445085294509</v>
+        <v>0.01317048511192616</v>
       </c>
       <c r="G88">
-        <v>-0.06461235982106549</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.001666412174640427</v>
+      </c>
+      <c r="H88">
+        <v>-0.006668819503112017</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1267384070888214</v>
+        <v>0.2226383491597737</v>
       </c>
       <c r="C89">
-        <v>0.08598868019634352</v>
+        <v>-0.05781211504062909</v>
       </c>
       <c r="D89">
-        <v>-0.01882151338351915</v>
+        <v>-0.3171426327552981</v>
       </c>
       <c r="E89">
-        <v>0.2886351321407418</v>
+        <v>-0.07880522512663816</v>
       </c>
       <c r="F89">
-        <v>-0.157256610361436</v>
+        <v>-0.1629531694657197</v>
       </c>
       <c r="G89">
-        <v>0.0267956822511603</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.001284942725671898</v>
+      </c>
+      <c r="H89">
+        <v>0.03048291779038361</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1140023147761139</v>
+        <v>0.17740746529167</v>
       </c>
       <c r="C90">
-        <v>0.0880884278655526</v>
+        <v>-0.04711668184703405</v>
       </c>
       <c r="D90">
-        <v>-0.06589450719685766</v>
+        <v>-0.2799068066024517</v>
       </c>
       <c r="E90">
-        <v>0.2826445850468853</v>
+        <v>-0.05157228152959773</v>
       </c>
       <c r="F90">
-        <v>-0.1123549134446183</v>
+        <v>-0.1564173624678553</v>
       </c>
       <c r="G90">
-        <v>0.04902987219255187</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03190945154659608</v>
+      </c>
+      <c r="H90">
+        <v>0.04584899809865061</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2939009293117942</v>
+        <v>0.2318399883487747</v>
       </c>
       <c r="C91">
-        <v>0.0960424764413277</v>
+        <v>-0.1199729032661645</v>
       </c>
       <c r="D91">
-        <v>0.05945476235433754</v>
+        <v>0.1223988623339881</v>
       </c>
       <c r="E91">
-        <v>-0.03586758768936783</v>
+        <v>-0.01807159657518909</v>
       </c>
       <c r="F91">
-        <v>0.2641665974741975</v>
+        <v>0.1413963878483654</v>
       </c>
       <c r="G91">
-        <v>-0.02353354591268882</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2100504681319842</v>
+      </c>
+      <c r="H91">
+        <v>0.124143012102595</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1954482563468013</v>
+        <v>0.2326133886828088</v>
       </c>
       <c r="C92">
-        <v>0.08585830477767006</v>
+        <v>-0.1152678803433136</v>
       </c>
       <c r="D92">
-        <v>-0.09885076329275555</v>
+        <v>-0.2219876326189378</v>
       </c>
       <c r="E92">
-        <v>0.4662874856522508</v>
+        <v>-0.03449084458545441</v>
       </c>
       <c r="F92">
-        <v>-0.04366443264695575</v>
+        <v>-0.1277548747555499</v>
       </c>
       <c r="G92">
-        <v>-0.5469007448059551</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04351164196245785</v>
+      </c>
+      <c r="H92">
+        <v>0.1431779534076767</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1279645217285362</v>
+        <v>0.2034921782355001</v>
       </c>
       <c r="C93">
-        <v>0.06703753819211845</v>
+        <v>-0.06072380844815223</v>
       </c>
       <c r="D93">
-        <v>-0.07756069627430819</v>
+        <v>-0.2948536347927286</v>
       </c>
       <c r="E93">
-        <v>0.3879735355548097</v>
+        <v>-0.06765554503510908</v>
       </c>
       <c r="F93">
-        <v>-0.08883619964564404</v>
+        <v>-0.1936849897599121</v>
       </c>
       <c r="G93">
-        <v>0.1130213940738734</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04203295381715254</v>
+      </c>
+      <c r="H93">
+        <v>-0.01485969708717613</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2631855559803891</v>
+        <v>0.2513156686061316</v>
       </c>
       <c r="C94">
-        <v>0.1265321981562212</v>
+        <v>-0.109765166207619</v>
       </c>
       <c r="D94">
-        <v>0.02665581160537494</v>
+        <v>0.1041798397426022</v>
       </c>
       <c r="E94">
-        <v>-0.02843422002698499</v>
+        <v>-0.03597675181740567</v>
       </c>
       <c r="F94">
-        <v>0.3072074060269336</v>
+        <v>0.1591507826881258</v>
       </c>
       <c r="G94">
-        <v>0.04072968548538756</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2155997753209027</v>
+      </c>
+      <c r="H94">
+        <v>0.1357810572652407</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07650549495853545</v>
+        <v>0.06497456295353342</v>
       </c>
       <c r="C95">
-        <v>0.01569328229376029</v>
+        <v>-0.03699456890781065</v>
       </c>
       <c r="D95">
-        <v>0.06371600058491618</v>
+        <v>0.07645436749092589</v>
       </c>
       <c r="E95">
-        <v>-0.07201811060168255</v>
+        <v>-0.07236009393355129</v>
       </c>
       <c r="F95">
-        <v>-0.03301428773268606</v>
+        <v>0.03263808205963094</v>
       </c>
       <c r="G95">
-        <v>-0.24426482954566</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.0612846392982064</v>
+      </c>
+      <c r="H95">
+        <v>-0.0008839865305671763</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1850422723906387</v>
+        <v>0.1751097457999321</v>
       </c>
       <c r="C98">
-        <v>0.03821344369298873</v>
+        <v>-0.08181121650952478</v>
       </c>
       <c r="D98">
-        <v>0.05711465519170109</v>
+        <v>0.03628658573695</v>
       </c>
       <c r="E98">
-        <v>0.03686176604543418</v>
+        <v>-0.05676466073002767</v>
       </c>
       <c r="F98">
-        <v>-0.09240918670426114</v>
+        <v>0.03380103953997719</v>
       </c>
       <c r="G98">
-        <v>0.2903226946850568</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1536780582575579</v>
+      </c>
+      <c r="H98">
+        <v>-0.3726972575770955</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002211457420085871</v>
+        <v>0.01329177040184785</v>
       </c>
       <c r="C101">
-        <v>0.03027624554811911</v>
+        <v>-0.0009468259762012237</v>
       </c>
       <c r="D101">
-        <v>0.007296121433807329</v>
+        <v>0.003187604614626049</v>
       </c>
       <c r="E101">
-        <v>-0.1353616688261183</v>
+        <v>0.006422483379997946</v>
       </c>
       <c r="F101">
-        <v>-0.1283118653396054</v>
+        <v>0.03650953597954099</v>
       </c>
       <c r="G101">
-        <v>-0.1236709370690315</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09834019984088908</v>
+      </c>
+      <c r="H101">
+        <v>0.07423489710195294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09481097133664312</v>
+        <v>0.1047292539999284</v>
       </c>
       <c r="C102">
-        <v>0.03177097933513612</v>
+        <v>-0.04134566331234336</v>
       </c>
       <c r="D102">
-        <v>0.01136733366893582</v>
+        <v>0.06295022088481328</v>
       </c>
       <c r="E102">
-        <v>-0.05653899271463021</v>
+        <v>-0.001331908172221437</v>
       </c>
       <c r="F102">
-        <v>0.1383566637010434</v>
+        <v>0.0716312990634919</v>
       </c>
       <c r="G102">
-        <v>-0.06442081440348031</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09399113253181873</v>
+      </c>
+      <c r="H102">
+        <v>0.05353273391934873</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02532269941440685</v>
+        <v>0.02163597307035145</v>
       </c>
       <c r="C103">
-        <v>0.01231701083649946</v>
+        <v>-0.009773483490718675</v>
       </c>
       <c r="D103">
-        <v>0.01149237016195509</v>
+        <v>0.01311011084886961</v>
       </c>
       <c r="E103">
-        <v>-0.005067007350944051</v>
+        <v>0.005160812406412522</v>
       </c>
       <c r="F103">
-        <v>0.01672039601494648</v>
+        <v>0.01831686372113299</v>
       </c>
       <c r="G103">
-        <v>-0.01747902174619551</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.006528571492984002</v>
+      </c>
+      <c r="H103">
+        <v>0.01070233145626477</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.3410847274035224</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9182822479847226</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.06095594568069611</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02521360356296892</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.157253673075986</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.04038615813995718</v>
+      </c>
+      <c r="H104">
+        <v>0.03054493366589145</v>
       </c>
     </row>
   </sheetData>
